--- a/biology/Zoologie/Epixerus_ebii/Epixerus_ebii.xlsx
+++ b/biology/Zoologie/Epixerus_ebii/Epixerus_ebii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Écureuil palmiste, Écureuil d'Ebi, Écureuil des palmiers
 L'Écureuil palmiste (Epixerus ebii) est un écureuil que l'on trouve au Ghana, en Guinée, en Côte d'Ivoire, au Liberia, en Sierra Leone.
-Il est appelé de divers noms vernaculaires en français : Écureuil palmiste[1],[2], Écureuil d'Ebi [2] ou Écureuil des palmiers [2]. Attention à ne pas le confondre avec les écureuils palmistes du genre Funambulus.
+Il est appelé de divers noms vernaculaires en français : Écureuil palmiste Écureuil d'Ebi  ou Écureuil des palmiers . Attention à ne pas le confondre avec les écureuils palmistes du genre Funambulus.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016)[3] et ITIS      (2 juin 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (2 juin 2016) et ITIS      (2 juin 2016) :
 Epixerus ebii ebii (Temminck, 1853)
 Epixerus ebii jonesi Hayman, 1954
-Epixerus ebii wilsoni (Du Chaillu, 1860) - considéré par NCBI comme une espèce à part entière[5].</t>
+Epixerus ebii wilsoni (Du Chaillu, 1860) - considéré par NCBI comme une espèce à part entière.</t>
         </is>
       </c>
     </row>
